--- a/media/akun.xlsx
+++ b/media/akun.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CATURWARGA COMPUTER\Downloads\New folder (2)\web1\kmti\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D1A0AA-860F-4E3C-8D84-9FEB60749F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A1229D-716D-47F8-AC01-EFA220AFBDBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3036" yWindow="5340" windowWidth="10608" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="1525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="1527">
   <si>
     <t>nim</t>
   </si>
@@ -4609,6 +4609,12 @@
   </si>
   <si>
     <t>abcde</t>
+  </si>
+  <si>
+    <t>panitiakmti2025</t>
+  </si>
+  <si>
+    <t>kmti2025</t>
   </si>
 </sst>
 </file>
@@ -4666,7 +4672,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4675,6 +4681,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4958,10 +4967,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D762"/>
+  <dimension ref="A1:D763"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A745" workbookViewId="0">
-      <selection activeCell="D760" sqref="D760"/>
+    <sheetView tabSelected="1" topLeftCell="A753" workbookViewId="0">
+      <selection activeCell="A763" sqref="A763"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15631,6 +15640,14 @@
       </c>
       <c r="D762" t="s">
         <v>1524</v>
+      </c>
+    </row>
+    <row r="763" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A763" s="4" t="s">
+        <v>1525</v>
+      </c>
+      <c r="D763" t="s">
+        <v>1526</v>
       </c>
     </row>
   </sheetData>
